--- a/Source/Project Outputs for PicoPrint/PicoPrint_v03b_BOM.xlsx
+++ b/Source/Project Outputs for PicoPrint/PicoPrint_v03b_BOM.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Git\R32-Micro\Source\Project Outputs for PicoPrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0BFE7F-A669-48F3-AA2C-A500F573EFD7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8822960B-53F8-4B1D-B774-96A98F713255}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="9030" xr2:uid="{F8058D24-07F5-446A-BD2A-AD52F8F960A6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{465AD33E-9C36-4417-A7F8-30E93CD5306F}"/>
   </bookViews>
   <sheets>
-    <sheet name="PicoPrint_v03a_BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="PicoPrint_v03b_BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="318">
   <si>
     <t>Designator</t>
   </si>
@@ -72,7 +77,7 @@
     <t>Approved sub OK</t>
   </si>
   <si>
-    <t>Samsung Electro-Mechanics</t>
+    <t>Samsung</t>
   </si>
   <si>
     <t>CL05A475MP5NRNC</t>
@@ -132,129 +137,129 @@
     <t>1276-6457-1-ND</t>
   </si>
   <si>
-    <t>C28, C119</t>
+    <t>C29, C31, C33, C75, C77</t>
+  </si>
+  <si>
+    <t>CapC-0402-22nF-50V</t>
+  </si>
+  <si>
+    <t>22nF</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GRM155R71H223KA12D</t>
+  </si>
+  <si>
+    <t>490-3884-1-ND</t>
+  </si>
+  <si>
+    <t>C30, C32, C34, C35, C36, C39, C40, C42, C43, C76, C78, C79, C80, C82, C83, C110, C111, C113, C117</t>
+  </si>
+  <si>
+    <t>CapC-0402-100nF-50V</t>
+  </si>
+  <si>
+    <t>GRM155R71H104KE14D</t>
+  </si>
+  <si>
+    <t>490-10700-1-ND</t>
+  </si>
+  <si>
+    <t>C37, C38, C41, C44, C81, C84, C109, C114, C125, C126, C127</t>
+  </si>
+  <si>
+    <t>CapC-0603-1uF 50V</t>
+  </si>
+  <si>
+    <t>CL10A105KB8NNNC</t>
+  </si>
+  <si>
+    <t>1276-1860-1-ND</t>
+  </si>
+  <si>
+    <t>C46, C50, C54, C86, C90</t>
+  </si>
+  <si>
+    <t>CapC-0402-470nF</t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>CL05A474KP5NNNC</t>
+  </si>
+  <si>
+    <t>1276-1173-1-ND</t>
+  </si>
+  <si>
+    <t>C57, C58, C59, C60, C61, C62, C66, C67, C68, C69, C70, C71, C97, C98, C99, C100, C103, C104, C105, C106</t>
+  </si>
+  <si>
+    <t>CapC-0402-470pF-100V</t>
+  </si>
+  <si>
+    <t>470pF</t>
+  </si>
+  <si>
+    <t>GRM155R72A471KA01D</t>
+  </si>
+  <si>
+    <t>490-6369-1-ND</t>
+  </si>
+  <si>
+    <t>C93, C94, C95, C96, C112, C118</t>
+  </si>
+  <si>
+    <t>Capacitor (SMD Polarised Electrolytic)</t>
+  </si>
+  <si>
+    <t>CapE-6.3-100uF-35V</t>
+  </si>
+  <si>
+    <t>100uF 35V</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>EEE-FT1V101AP</t>
+  </si>
+  <si>
+    <t>PCE5016CT-ND</t>
+  </si>
+  <si>
+    <t>C116</t>
+  </si>
+  <si>
+    <t>CapE-5.0-100uF-6.3V</t>
+  </si>
+  <si>
+    <t>100uF 6.3V</t>
+  </si>
+  <si>
+    <t>United Chemi-Con</t>
+  </si>
+  <si>
+    <t>EMVA6R3ADA101ME55G</t>
+  </si>
+  <si>
+    <t>565-2057-1-ND</t>
+  </si>
+  <si>
+    <t>C119</t>
   </si>
   <si>
     <t>CapC-1210-4.7uF-50V</t>
   </si>
   <si>
-    <t>Murata Electronics North America</t>
-  </si>
-  <si>
     <t>GRM32ER71H475KA88L</t>
   </si>
   <si>
     <t>490-1864-1-ND</t>
   </si>
   <si>
-    <t>C29, C31, C33, C75, C77</t>
-  </si>
-  <si>
-    <t>CapC-0402-22nF-50V</t>
-  </si>
-  <si>
-    <t>22nF</t>
-  </si>
-  <si>
-    <t>GRM155R71H223KA12D</t>
-  </si>
-  <si>
-    <t>490-3884-1-ND</t>
-  </si>
-  <si>
-    <t>C30, C32, C34, C35, C36, C39, C40, C42, C43, C76, C78, C79, C80, C82, C83, C110, C111, C113, C117</t>
-  </si>
-  <si>
-    <t>CapC-0402-100nF-50V</t>
-  </si>
-  <si>
-    <t>GRM155R71H104KE14D</t>
-  </si>
-  <si>
-    <t>490-10700-1-ND</t>
-  </si>
-  <si>
-    <t>C37, C38, C41, C44, C81, C84, C109, C114, C125, C126, C127</t>
-  </si>
-  <si>
-    <t>CapC-0603-1uF 50V</t>
-  </si>
-  <si>
-    <t>CL10A105KB8NNNC</t>
-  </si>
-  <si>
-    <t>1276-1860-1-ND</t>
-  </si>
-  <si>
-    <t>C46, C50, C54, C86, C90</t>
-  </si>
-  <si>
-    <t>CapC-0402-470nF</t>
-  </si>
-  <si>
-    <t>470nF</t>
-  </si>
-  <si>
-    <t>CL05A474KP5NNNC</t>
-  </si>
-  <si>
-    <t>1276-1173-1-ND</t>
-  </si>
-  <si>
-    <t>C57, C58, C59, C60, C61, C62, C66, C67, C68, C69, C70, C71, C97, C98, C99, C100, C103, C104, C105, C106</t>
-  </si>
-  <si>
-    <t>CapC-0402-470pF-100V</t>
-  </si>
-  <si>
-    <t>470pF</t>
-  </si>
-  <si>
-    <t>GRM155R72A471KA01D</t>
-  </si>
-  <si>
-    <t>490-6369-1-ND</t>
-  </si>
-  <si>
-    <t>C93, C94, C95, C96, C112, C118</t>
-  </si>
-  <si>
-    <t>Capacitor (SMD Polarised Electrolytic)</t>
-  </si>
-  <si>
-    <t>CapE-6.3-100uF-35V</t>
-  </si>
-  <si>
-    <t>100uF 35V</t>
-  </si>
-  <si>
-    <t>Panasonic Electronic Components</t>
-  </si>
-  <si>
-    <t>EEE-FT1V101AP</t>
-  </si>
-  <si>
-    <t>PCE5016CT-ND</t>
-  </si>
-  <si>
-    <t>C116</t>
-  </si>
-  <si>
-    <t>CapE-5.0-100uF-6.3V</t>
-  </si>
-  <si>
-    <t>100uF 6.3V</t>
-  </si>
-  <si>
-    <t>United Chemi-Con</t>
-  </si>
-  <si>
-    <t>EMVA6R3ADA101ME55G</t>
-  </si>
-  <si>
-    <t>565-2057-1-ND</t>
-  </si>
-  <si>
     <t>C120, C121</t>
   </si>
   <si>
@@ -273,49 +278,49 @@
     <t>D1, D2, D3, D4, D5, D6, D7, D8, D9, D10</t>
   </si>
   <si>
-    <t>Default Diode</t>
-  </si>
-  <si>
-    <t>Diode Schottky 100mA 30V (Dual)</t>
+    <t>Diode (SMD)</t>
+  </si>
+  <si>
+    <t>Dual Schottky 100mA 30V SOT523</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>BAT54ST</t>
-  </si>
-  <si>
-    <t>BAT54STCT-ND</t>
+    <t>MCC</t>
+  </si>
+  <si>
+    <t>BAT54ST-TP</t>
+  </si>
+  <si>
+    <t>BAT54ST-TPCT-ND</t>
   </si>
   <si>
     <t>D11, D12, D13</t>
   </si>
   <si>
-    <t>Diode SMD 300mA 0.5W SOD323</t>
-  </si>
-  <si>
-    <t>DIODE_75V_500mW</t>
+    <t xml:space="preserve">Diode (SMD) </t>
+  </si>
+  <si>
+    <t>General 500mW 75V SOD323</t>
   </si>
   <si>
     <t>Vf=1V @ 50mA</t>
   </si>
   <si>
-    <t>Micro Commercial Co</t>
-  </si>
-  <si>
     <t>1N4148WX-TP</t>
   </si>
   <si>
     <t>1N4148WXTPMSCT-ND</t>
   </si>
   <si>
-    <t>D15, D16</t>
-  </si>
-  <si>
-    <t>Diode Schottky 2A 40V (SS24FL)</t>
+    <t>D14, D15, D16</t>
+  </si>
+  <si>
+    <t>Schottky 2A 40V SOD-123F</t>
+  </si>
+  <si>
+    <t>ON Semiconductor / Fairchild</t>
   </si>
   <si>
     <t>SS24FL</t>
@@ -327,7 +332,14 @@
     <t>D17</t>
   </si>
   <si>
-    <t>Diode Zener 10V</t>
+    <t xml:space="preserve">Diode (SMD)_x000D_
+</t>
+  </si>
+  <si>
+    <t>Zener 10V 150mW SOD523</t>
+  </si>
+  <si>
+    <t>Panasonic SSG</t>
   </si>
   <si>
     <t>DZ2S100M0L</t>
@@ -348,7 +360,7 @@
     <t>200mA</t>
   </si>
   <si>
-    <t>Bel Fuse Inc.</t>
+    <t>Bel</t>
   </si>
   <si>
     <t>0ZCJ0020FF2E</t>
@@ -366,7 +378,7 @@
     <t>120R @ 100 MHz</t>
   </si>
   <si>
-    <t>BLM18PG121SN1D</t>
+    <t>BLM18PG-121SN1D</t>
   </si>
   <si>
     <t>490-1037-1-ND</t>
@@ -381,7 +393,7 @@
     <t>50R @ 100 MHz</t>
   </si>
   <si>
-    <t>Laird-Signal Integrity Products</t>
+    <t>Laird</t>
   </si>
   <si>
     <t>HI1206T500R-10</t>
@@ -396,10 +408,10 @@
     <t>Micro-USB B Socket</t>
   </si>
   <si>
-    <t>Molex, LLC</t>
-  </si>
-  <si>
-    <t>1050170001</t>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>105017-0001</t>
   </si>
   <si>
     <t>WM1399CT-ND</t>
@@ -429,37 +441,46 @@
     <t>LD1</t>
   </si>
   <si>
-    <t>Hyper-Bright LED (Red)</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>Lite-On Inc.</t>
-  </si>
-  <si>
-    <t>LTST-C190KGKT</t>
-  </si>
-  <si>
-    <t>160-1435-2-ND</t>
+    <t>LED (SMD)</t>
+  </si>
+  <si>
+    <t>LED-0402</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>150040RS73240</t>
+  </si>
+  <si>
+    <t>732-11991-1-ND</t>
   </si>
   <si>
     <t>LD2, LD3, LD4, LD5, LD6, LD8, LD9, LD10, LD11, LD12, LD13</t>
   </si>
   <si>
-    <t>Hyper-Bright LED (Green)</t>
-  </si>
-  <si>
-    <t>GREEN</t>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>150040VS73240</t>
+  </si>
+  <si>
+    <t>732-11992-1-ND</t>
   </si>
   <si>
     <t>LD7</t>
   </si>
   <si>
-    <t>Hyper-Bright LED (Yellow)</t>
-  </si>
-  <si>
-    <t>YELLOW</t>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>150040YS73240</t>
+  </si>
+  <si>
+    <t>732-11993-1-ND</t>
   </si>
   <si>
     <t>P1, P4, P11</t>
@@ -492,9 +513,6 @@
     <t>Generic Header</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>P5, P10</t>
   </si>
   <si>
@@ -591,7 +609,7 @@
     <t>AO3400A</t>
   </si>
   <si>
-    <t>Alpha &amp; Omega Semiconductor Inc.</t>
+    <t>Alpha &amp; Omega Semiconductor</t>
   </si>
   <si>
     <t>785-1000-1-ND</t>
@@ -600,7 +618,19 @@
     <t>Q5</t>
   </si>
   <si>
-    <t>Vishay Siliconix</t>
+    <t>N-CH MOSFET 40V 100A LFPAK</t>
+  </si>
+  <si>
+    <t>BUK9Y4R4-40E</t>
+  </si>
+  <si>
+    <t>NXP Semiconductors</t>
+  </si>
+  <si>
+    <t>PSMN1R8-40YLC,115</t>
+  </si>
+  <si>
+    <t>568-10156-1-ND</t>
   </si>
   <si>
     <t>Q7</t>
@@ -612,6 +642,9 @@
     <t>SI7111EDN-T1-GE3</t>
   </si>
   <si>
+    <t>Vishay</t>
+  </si>
+  <si>
     <t>SI7111EDN-T1-GE3CT-ND</t>
   </si>
   <si>
@@ -816,7 +849,7 @@
     <t>User, Reset</t>
   </si>
   <si>
-    <t>APEM Inc.</t>
+    <t>APEM</t>
   </si>
   <si>
     <t>MJTP1106SATR</t>
@@ -849,10 +882,10 @@
     <t>MICROSD</t>
   </si>
   <si>
-    <t>Amphenol Commercial Products</t>
-  </si>
-  <si>
-    <t>101-00660-68-6</t>
+    <t>Amphenol</t>
+  </si>
+  <si>
+    <t>10100660686</t>
   </si>
   <si>
     <t>101-00660-68-6-1-ND</t>
@@ -876,7 +909,20 @@
     <t>U4</t>
   </si>
   <si>
-    <t>Diodes Incorporated</t>
+    <t xml:space="preserve">MOSFET Gate Driver IC_x000D_
+</t>
+  </si>
+  <si>
+    <t>Gate Driver</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>ZXGD3009DYTA</t>
+  </si>
+  <si>
+    <t>ZXGD3009DYTADICT-ND</t>
   </si>
   <si>
     <t>U5, U6, U7, U8, U9</t>
@@ -888,7 +934,7 @@
     <t>TMC2130-LA</t>
   </si>
   <si>
-    <t>Trinamic Motion Control GmbH</t>
+    <t>Trinamic</t>
   </si>
   <si>
     <t>TMC2130-LA-T</t>
@@ -906,7 +952,7 @@
     <t>TS30042</t>
   </si>
   <si>
-    <t>Semtech Corporation</t>
+    <t>Semtech</t>
   </si>
   <si>
     <t>TS30042-M000QFNR</t>
@@ -940,43 +986,13 @@
   </si>
   <si>
     <t>490-1197-1-ND</t>
-  </si>
-  <si>
-    <t>N-CH MOSFET 40V 100A</t>
-  </si>
-  <si>
-    <t>BUK9Y4R4-40E</t>
-  </si>
-  <si>
-    <t>Nexperia USA Inc.</t>
-  </si>
-  <si>
-    <t>BUK9Y4R4-40E,115</t>
-  </si>
-  <si>
-    <t>1727-1502-1-ND</t>
-  </si>
-  <si>
-    <t>MOSFET Gate Driver IC</t>
-  </si>
-  <si>
-    <t>Gate Driver</t>
-  </si>
-  <si>
-    <t>ZXGD3009DYTA</t>
-  </si>
-  <si>
-    <t>ZXGD3009DYTADICT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-409]d/mmm;@"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,37 +1012,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1068,34 +1053,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1105,25 +1065,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Normal 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="常规 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="常规 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="常规 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="常规 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="常规 6 2" xfId="13" xr:uid="{B5BC0CB0-D730-4B03-A956-2D2335519897}"/>
-    <cellStyle name="常规 7" xfId="10" xr:uid="{AB60D550-1E45-498C-90DA-22ABE4FFC80C}"/>
-    <cellStyle name="常规 8" xfId="14" xr:uid="{4CE07BAA-B7B5-4547-93F0-6D084C3C2388}"/>
-    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="超链接 3" xfId="11" xr:uid="{BF7D11EA-D4CB-4973-9BE3-FF1892F20FCB}"/>
-    <cellStyle name="超链接 3 2" xfId="12" xr:uid="{74098B44-8FD2-4323-A6E5-ACF002121955}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1434,28 +1380,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83053E2-D895-4419-8A06-42AFB1A20710}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D68364-E99B-4021-8EDC-563AB3782EA9}">
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1519,7 +1465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1551,7 +1497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1583,7 +1529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1615,7 +1561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1626,48 +1572,48 @@
         <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>43</v>
@@ -1679,7 +1625,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1690,16 +1636,16 @@
         <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>47</v>
@@ -1711,7 +1657,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
@@ -1722,10 +1668,10 @@
         <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>14</v>
@@ -1734,123 +1680,123 @@
         <v>15</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="3">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1859,7 +1805,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>74</v>
@@ -1871,7 +1817,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>76</v>
       </c>
@@ -1903,7 +1849,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>81</v>
       </c>
@@ -1935,7 +1881,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>88</v>
       </c>
@@ -1955,39 +1901,39 @@
         <v>14</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>97</v>
@@ -1999,15 +1945,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>82</v>
+      <c r="B18" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>84</v>
@@ -2019,30 +1965,30 @@
         <v>14</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
@@ -2051,30 +1997,30 @@
         <v>14</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
@@ -2083,30 +2029,30 @@
         <v>14</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -2115,27 +2061,27 @@
         <v>14</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>84</v>
@@ -2147,30 +2093,30 @@
         <v>14</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -2179,30 +2125,30 @@
         <v>14</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -2211,30 +2157,30 @@
         <v>14</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="E25" s="3">
         <v>11</v>
@@ -2243,30 +2189,30 @@
         <v>14</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -2275,27 +2221,27 @@
         <v>14</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>84</v>
@@ -2303,29 +2249,31 @@
       <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G27" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>84</v>
@@ -2337,10 +2285,10 @@
         <v>14</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>84</v>
@@ -2349,15 +2297,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>84</v>
@@ -2369,10 +2317,10 @@
         <v>14</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>84</v>
@@ -2381,15 +2329,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>84</v>
@@ -2401,10 +2349,10 @@
         <v>14</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>84</v>
@@ -2413,15 +2361,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>84</v>
@@ -2433,10 +2381,10 @@
         <v>14</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>84</v>
@@ -2445,15 +2393,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>84</v>
@@ -2465,10 +2413,10 @@
         <v>14</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>84</v>
@@ -2477,15 +2425,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>84</v>
@@ -2497,10 +2445,10 @@
         <v>14</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>84</v>
@@ -2509,15 +2457,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>84</v>
@@ -2529,10 +2477,10 @@
         <v>14</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>84</v>
@@ -2541,15 +2489,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>84</v>
@@ -2561,27 +2509,27 @@
         <v>14</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>84</v>
@@ -2593,10 +2541,10 @@
         <v>14</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>84</v>
@@ -2605,15 +2553,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>84</v>
@@ -2625,10 +2573,10 @@
         <v>14</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>84</v>
@@ -2637,15 +2585,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>84</v>
@@ -2657,27 +2605,27 @@
         <v>84</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>305</v>
+        <v>195</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>306</v>
+        <v>196</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>84</v>
@@ -2689,27 +2637,27 @@
         <v>84</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>84</v>
@@ -2721,30 +2669,30 @@
         <v>84</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E41" s="3">
         <v>22</v>
@@ -2756,27 +2704,27 @@
         <v>22</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
@@ -2788,27 +2736,27 @@
         <v>22</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J42" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E43" s="3">
         <v>3</v>
@@ -2820,27 +2768,27 @@
         <v>22</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -2852,27 +2800,27 @@
         <v>22</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
@@ -2884,27 +2832,27 @@
         <v>22</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E46" s="3">
         <v>3</v>
@@ -2916,27 +2864,27 @@
         <v>22</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E47" s="3">
         <v>6</v>
@@ -2948,27 +2896,27 @@
         <v>22</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E48" s="3">
         <v>4</v>
@@ -2980,27 +2928,27 @@
         <v>22</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J48" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E49" s="3">
         <v>2</v>
@@ -3012,27 +2960,27 @@
         <v>22</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E50" s="3">
         <v>6</v>
@@ -3044,27 +2992,27 @@
         <v>22</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E51" s="3">
         <v>8</v>
@@ -3076,27 +3024,27 @@
         <v>22</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E52" s="3">
         <v>10</v>
@@ -3105,30 +3053,30 @@
         <v>14</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -3140,24 +3088,24 @@
         <v>22</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>84</v>
@@ -3169,27 +3117,27 @@
         <v>14</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>84</v>
@@ -3201,27 +3149,27 @@
         <v>84</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>84</v>
@@ -3233,27 +3181,27 @@
         <v>14</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>84</v>
@@ -3265,27 +3213,27 @@
         <v>84</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>310</v>
+        <v>291</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>84</v>
@@ -3294,30 +3242,30 @@
         <v>1</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>84</v>
@@ -3329,27 +3277,27 @@
         <v>84</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>84</v>
@@ -3361,27 +3309,27 @@
         <v>84</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>84</v>
@@ -3393,27 +3341,27 @@
         <v>84</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>84</v>
@@ -3425,199 +3373,205 @@
         <v>14</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="Component" display="'Samsung Electro-Mechanics" xr:uid="{7B5AA108-2355-4BAC-B8DF-428DC5535879}"/>
-    <hyperlink ref="H2" r:id="rId2" tooltip="Manufacturer" display="'CL05A475MP5NRNC" xr:uid="{1F8D2180-08D2-458C-87FC-4036081DDDDC}"/>
-    <hyperlink ref="J2" r:id="rId3" tooltip="Supplier" display="'1276-1482-1-ND" xr:uid="{E3E87E7A-5CB0-4B66-A6E1-5D152043033D}"/>
-    <hyperlink ref="G3" r:id="rId4" tooltip="Component" display="'Yageo" xr:uid="{54F3C44E-9792-4D07-A062-CFB8B2A5FE37}"/>
-    <hyperlink ref="H3" r:id="rId5" tooltip="Manufacturer" display="'CC0402KRX5R6BB104" xr:uid="{A87C67B1-27A8-4E3C-BCB3-0D52483169B2}"/>
-    <hyperlink ref="J3" r:id="rId6" tooltip="Supplier" display="'311-1336-1-ND" xr:uid="{7DF1C127-FA92-4377-9F7C-785B21BCEDA4}"/>
-    <hyperlink ref="G4" r:id="rId7" tooltip="Component" display="'Samsung Electro-Mechanics" xr:uid="{AEA7438E-3558-4867-9DC1-35F085D0AE0C}"/>
-    <hyperlink ref="H4" r:id="rId8" tooltip="Manufacturer" display="'CL05A105MP5NNNC" xr:uid="{781F6711-35A9-4ECB-9A92-2EB8B0B2A499}"/>
-    <hyperlink ref="J4" r:id="rId9" tooltip="Supplier" display="'1276-1448-1-ND" xr:uid="{66ADF0DD-AAA5-4A36-BA05-6526B4C887F4}"/>
-    <hyperlink ref="G5" r:id="rId10" tooltip="Component" display="'Samsung Electro-Mechanics" xr:uid="{3C5202C2-7FB0-4EE6-A50B-8DD5500F13D6}"/>
-    <hyperlink ref="H5" r:id="rId11" tooltip="Manufacturer" display="'CL21A106KQFNNNG" xr:uid="{A9B846DB-7CC4-4D42-88D1-59742BD3992B}"/>
-    <hyperlink ref="J5" r:id="rId12" tooltip="Supplier" display="'1276-6457-1-ND" xr:uid="{BF8B6F07-2A7E-4CE2-934A-90134310F6DA}"/>
-    <hyperlink ref="G6" r:id="rId13" tooltip="Component" display="'Murata Electronics North America" xr:uid="{B9171641-DBAC-4BDC-B4FA-E812E37421D8}"/>
-    <hyperlink ref="H6" r:id="rId14" tooltip="Manufacturer" display="'GRM32ER71H475KA88L" xr:uid="{7C025FE3-BF2A-4132-A44F-3ED157D5BBEC}"/>
-    <hyperlink ref="J6" r:id="rId15" tooltip="Supplier" display="'490-1864-1-ND" xr:uid="{B5589D58-842D-40F1-901E-B30E8BAA5DB1}"/>
-    <hyperlink ref="G7" r:id="rId16" tooltip="Component" display="'Murata Electronics North America" xr:uid="{CB9A51FB-7960-4E5C-9EC1-BD19E7E09F0F}"/>
-    <hyperlink ref="H7" r:id="rId17" tooltip="Manufacturer" display="'GRM155R71H223KA12D" xr:uid="{8A2BE73B-2F61-45C9-AA09-566C986C9881}"/>
-    <hyperlink ref="J7" r:id="rId18" tooltip="Supplier" display="'490-3884-1-ND" xr:uid="{3B82C68F-42C9-4D12-8FFA-3012823159B5}"/>
-    <hyperlink ref="G8" r:id="rId19" tooltip="Component" display="'Murata Electronics North America" xr:uid="{4220C43C-1AD0-468E-836C-10C99FA07D8B}"/>
-    <hyperlink ref="H8" r:id="rId20" tooltip="Manufacturer" display="'GRM155R71H104KE14D" xr:uid="{3410016C-24EE-4D20-9F00-67D800025F41}"/>
-    <hyperlink ref="J8" r:id="rId21" tooltip="Supplier" display="'490-10700-1-ND" xr:uid="{10D058A4-6C03-469A-AFE7-3D0B4894D7F2}"/>
-    <hyperlink ref="G9" r:id="rId22" tooltip="Component" display="'Samsung Electro-Mechanics" xr:uid="{87FB093D-FE9E-4684-97BE-963FFECA4BB3}"/>
-    <hyperlink ref="H9" r:id="rId23" tooltip="Manufacturer" display="'CL10A105KB8NNNC" xr:uid="{C2B6360E-C5F3-4E8C-9A08-82335D677E46}"/>
-    <hyperlink ref="J9" r:id="rId24" tooltip="Supplier" display="'1276-1860-1-ND" xr:uid="{BB9DB384-19AE-41BA-BE69-8647E4C626A2}"/>
-    <hyperlink ref="G10" r:id="rId25" tooltip="Component" display="'Samsung Electro-Mechanics" xr:uid="{7A100E6E-490C-49A0-81B1-0C7C84E25681}"/>
-    <hyperlink ref="H10" r:id="rId26" tooltip="Manufacturer" display="'CL05A474KP5NNNC" xr:uid="{A1C38C2C-CB59-4D2F-B325-ABBF10DFE281}"/>
-    <hyperlink ref="J10" r:id="rId27" tooltip="Supplier" display="'1276-1173-1-ND" xr:uid="{4D7FA0BF-DF31-47A2-BFA7-86A37976228A}"/>
-    <hyperlink ref="G11" r:id="rId28" tooltip="Component" display="'Murata Electronics North America" xr:uid="{ECD2A32E-8BB4-4419-80C2-5D526201EE60}"/>
-    <hyperlink ref="H11" r:id="rId29" tooltip="Manufacturer" display="'GRM155R72A471KA01D" xr:uid="{0BB65F4C-EEE7-44F6-827E-0779277CC579}"/>
-    <hyperlink ref="J11" r:id="rId30" tooltip="Supplier" display="'490-6369-1-ND" xr:uid="{C2C99E5E-4002-4108-8872-17A2FC223B10}"/>
-    <hyperlink ref="G12" r:id="rId31" tooltip="Component" display="'Panasonic Electronic Components" xr:uid="{6AEA606A-9D28-4D10-95EA-91D4AF2C7C9D}"/>
-    <hyperlink ref="H12" r:id="rId32" tooltip="Manufacturer" display="'EEE-FT1V101AP" xr:uid="{DBAF43D7-4EDC-4625-A928-15226E92DE4A}"/>
-    <hyperlink ref="J12" r:id="rId33" tooltip="Supplier" display="'PCE5016CT-ND" xr:uid="{A94C451A-006F-423E-80B7-4E6FDB4A85C7}"/>
-    <hyperlink ref="G13" r:id="rId34" tooltip="Component" display="'United Chemi-Con" xr:uid="{FB6B8D83-D8A4-4B77-ACEB-8B5435AB236A}"/>
-    <hyperlink ref="H13" r:id="rId35" tooltip="Manufacturer" display="'EMVA6R3ADA101ME55G" xr:uid="{FBE84790-68FB-4BFD-9375-8C3918E7BAD3}"/>
-    <hyperlink ref="J13" r:id="rId36" tooltip="Supplier" display="'565-2057-1-ND" xr:uid="{D2458AF4-96CC-4E62-AB84-AABB8F98C9A1}"/>
-    <hyperlink ref="G14" r:id="rId37" tooltip="Component" display="'Samsung Electro-Mechanics" xr:uid="{504DA669-04DD-44E2-89A5-4091FE47B153}"/>
-    <hyperlink ref="H14" r:id="rId38" tooltip="Manufacturer" display="'CL21A226MQQNNNG" xr:uid="{DFF2339D-9751-4A90-98FE-A085D4D8AE92}"/>
-    <hyperlink ref="J14" r:id="rId39" tooltip="Supplier" display="'1276-6460-1-ND" xr:uid="{06F7CA37-C5E7-42AC-A137-4B0766B6DFEF}"/>
-    <hyperlink ref="G15" r:id="rId40" tooltip="Component" display="'ON Semiconductor" xr:uid="{5A6C1634-625B-4374-8797-289BF8FFEE09}"/>
-    <hyperlink ref="H15" r:id="rId41" tooltip="Manufacturer" display="'BAT54ST" xr:uid="{C412CC99-4F03-4714-A064-7AE22013A418}"/>
-    <hyperlink ref="J15" r:id="rId42" tooltip="Supplier" display="'BAT54STCT-ND" xr:uid="{16E64EB0-709E-44A7-8188-1C4FB9E7379D}"/>
-    <hyperlink ref="G16" r:id="rId43" tooltip="Component" display="'Micro Commercial Co" xr:uid="{9A434F14-C988-486D-90E1-24635C484F95}"/>
-    <hyperlink ref="H16" r:id="rId44" tooltip="Manufacturer" display="'1N4148WX-TP" xr:uid="{5640C202-FF20-45B2-B529-7BD62C817588}"/>
-    <hyperlink ref="J16" r:id="rId45" tooltip="Supplier" display="'1N4148WXTPMSCT-ND" xr:uid="{2C50A2C7-9E92-4879-9BB5-68902C780D1E}"/>
-    <hyperlink ref="G17" r:id="rId46" tooltip="Component" display="'ON Semiconductor" xr:uid="{F46E2B0A-588A-4050-8661-1FC1DAD7B3CE}"/>
-    <hyperlink ref="H17" r:id="rId47" tooltip="Manufacturer" display="'SS24FL" xr:uid="{303E2DE4-7602-4933-909D-FB7D18C4AE29}"/>
-    <hyperlink ref="J17" r:id="rId48" tooltip="Supplier" display="'SS24FLCT-ND" xr:uid="{B3042759-FA3B-42B2-AFE3-EEDE465994D2}"/>
-    <hyperlink ref="G18" r:id="rId49" tooltip="Component" display="'Panasonic Electronic Components" xr:uid="{388AEAA0-0FA6-47FF-AC73-BD1ECD280982}"/>
-    <hyperlink ref="H18" r:id="rId50" tooltip="Manufacturer" display="'DZ2S100M0L" xr:uid="{3EBF832F-B139-4A1E-A3C5-93A92A51B0BB}"/>
-    <hyperlink ref="J18" r:id="rId51" tooltip="Supplier" display="'DZ2S100M0LCT-ND" xr:uid="{355CD9DB-BA45-4D59-9952-9480F2475185}"/>
-    <hyperlink ref="G19" r:id="rId52" tooltip="Component" display="'Bel Fuse Inc." xr:uid="{97721D07-9929-4DCF-8163-ED24D64207DE}"/>
-    <hyperlink ref="H19" r:id="rId53" tooltip="Manufacturer" display="'0ZCJ0020FF2E" xr:uid="{DDC09EC6-8395-4702-83E9-865C58A6FF2D}"/>
-    <hyperlink ref="J19" r:id="rId54" tooltip="Supplier" display="'507-1797-1-ND" xr:uid="{639E0652-A593-43ED-8217-75EA9271DD93}"/>
-    <hyperlink ref="G20" r:id="rId55" tooltip="Component" display="'Murata Electronics North America" xr:uid="{A83320AB-B1F3-483D-9B26-59DC5E1B9F7F}"/>
-    <hyperlink ref="H20" r:id="rId56" tooltip="Manufacturer" display="'BLM18PG121SN1D" xr:uid="{7A20C4AB-7D13-4004-A970-FB1C983FFE79}"/>
-    <hyperlink ref="J20" r:id="rId57" tooltip="Supplier" display="'490-1037-1-ND" xr:uid="{38F54368-A0C7-43F7-81EA-7755FAAF5E7C}"/>
-    <hyperlink ref="G21" r:id="rId58" tooltip="Component" display="'Laird-Signal Integrity Products" xr:uid="{49D8CB8B-1EC4-44C9-95EE-F49E380D0268}"/>
-    <hyperlink ref="H21" r:id="rId59" tooltip="Manufacturer" display="'HI1206T500R-10" xr:uid="{70F24514-7AFA-4D39-BA2B-80337F1053C0}"/>
-    <hyperlink ref="J21" r:id="rId60" tooltip="Supplier" display="'240-2412-1-ND" xr:uid="{C96305ED-E5FE-43CB-AEB2-BB102428EECD}"/>
-    <hyperlink ref="G22" r:id="rId61" tooltip="Component" display="'Molex, LLC" xr:uid="{D151C11B-BB09-4BFF-A25B-5535E9865615}"/>
-    <hyperlink ref="H22" r:id="rId62" tooltip="Manufacturer" display="'1050170001" xr:uid="{7F3786A7-60C5-4223-96D5-6A0CB37ED787}"/>
-    <hyperlink ref="J22" r:id="rId63" tooltip="Supplier" display="'WM1399CT-ND" xr:uid="{16C03FD3-2489-4CBC-9F95-D7447F2BDC2C}"/>
-    <hyperlink ref="G23" r:id="rId64" tooltip="Component" display="'Taiyo Yuden" xr:uid="{1E053FE4-AB5F-4684-BA8B-97A3F6825188}"/>
-    <hyperlink ref="H23" r:id="rId65" tooltip="Manufacturer" display="'NRS5030T4R7MMGJ" xr:uid="{8BFC22EA-A2EE-4BC8-9171-2282D96B7FDD}"/>
-    <hyperlink ref="J23" r:id="rId66" tooltip="Supplier" display="'587-3461-1-ND" xr:uid="{68930145-C3F3-4E51-8972-C4BB98164489}"/>
-    <hyperlink ref="G24" r:id="rId67" tooltip="Component" display="'Lite-On Inc." xr:uid="{F867DAE5-83B1-464C-8401-0B54730D000C}"/>
-    <hyperlink ref="H24" r:id="rId68" tooltip="Manufacturer" display="'LTST-C190KGKT" xr:uid="{1FFA4917-7FC9-401E-8C55-4C2EBEDC0008}"/>
-    <hyperlink ref="J24" r:id="rId69" tooltip="Supplier" display="'160-1435-2-ND" xr:uid="{A3E9FEC0-8A0B-4659-A99D-710A7F8EA45F}"/>
-    <hyperlink ref="G25" r:id="rId70" tooltip="Component" display="'Lite-On Inc." xr:uid="{62B1B5E6-2244-4613-B08C-396D8FAEABB9}"/>
-    <hyperlink ref="H25" r:id="rId71" tooltip="Manufacturer" display="'LTST-C190KGKT" xr:uid="{3EFE45CB-DC1C-4B26-A6A3-6D0EF1B4ECCD}"/>
-    <hyperlink ref="J25" r:id="rId72" tooltip="Supplier" display="'160-1435-2-ND" xr:uid="{9B4993D8-7843-41B3-8924-8574149727E5}"/>
-    <hyperlink ref="G26" r:id="rId73" tooltip="Component" display="'Lite-On Inc." xr:uid="{29A44E86-AB95-4040-A65B-8D4361212DC8}"/>
-    <hyperlink ref="H26" r:id="rId74" tooltip="Manufacturer" display="'LTST-C190KGKT" xr:uid="{00CA2F1F-652B-4625-AFA5-0EEA171BB466}"/>
-    <hyperlink ref="J26" r:id="rId75" tooltip="Supplier" display="'160-1435-2-ND" xr:uid="{B7AAB4FB-5F11-4F51-9E0F-7FBAA6A3CC19}"/>
-    <hyperlink ref="G27" r:id="rId76" tooltip="Component" display="'Phoenix Contact" xr:uid="{E5EF05B1-1907-4C5C-9F30-B083B011F9A2}"/>
-    <hyperlink ref="J27" r:id="rId77" tooltip="Supplier" display="'277-6405-ND" xr:uid="{8B8E0D92-86C8-41FD-837C-F311D945FA14}"/>
-    <hyperlink ref="G28" tooltip="Component" display="'Generic Header" xr:uid="{5F44BF0A-9CAC-42D0-A00C-7B0386F8FAE0}"/>
-    <hyperlink ref="H28" tooltip="Manufacturer" display="' " xr:uid="{52DEC760-240C-4037-A661-6031A14AF63B}"/>
-    <hyperlink ref="J28" tooltip="Supplier" display="'" xr:uid="{963188DC-6C9B-4B2D-BABF-D75D87BC4219}"/>
-    <hyperlink ref="G29" tooltip="Component" display="'Generic Header" xr:uid="{00DC75C4-F27E-4E1D-842D-6D0FF3B212E6}"/>
-    <hyperlink ref="H29" tooltip="Manufacturer" display="' " xr:uid="{119164C4-2D88-4511-95C4-B454D7E45C50}"/>
-    <hyperlink ref="J29" tooltip="Supplier" display="'" xr:uid="{8028FF8E-D454-4EC4-B772-98BBED8B37C0}"/>
-    <hyperlink ref="G30" tooltip="Component" display="'Generic Header" xr:uid="{7A4CD0A0-EE83-475A-AFC9-D3ABF26194D8}"/>
-    <hyperlink ref="H30" tooltip="Manufacturer" display="' " xr:uid="{0E36F4D7-7F36-42E0-803E-A295CE76CC7E}"/>
-    <hyperlink ref="J30" tooltip="Supplier" display="'" xr:uid="{1CF009C0-0AE2-4345-9C13-751B7FFC1B78}"/>
-    <hyperlink ref="G31" tooltip="Component" display="'Generic Header" xr:uid="{A7C1C368-16CA-49CD-8E37-186770212A96}"/>
-    <hyperlink ref="H31" tooltip="Manufacturer" display="' " xr:uid="{6CEBBA7B-4729-4F78-B6C9-AAB97E983754}"/>
-    <hyperlink ref="J31" tooltip="Supplier" display="'" xr:uid="{9B1B0B65-06AC-473C-A5AB-4C6385909AE1}"/>
-    <hyperlink ref="G32" tooltip="Component" display="'Generic Header" xr:uid="{9284FBDD-2A67-4A0C-A645-2BD8D6A8DD95}"/>
-    <hyperlink ref="H32" tooltip="Manufacturer" display="' " xr:uid="{87DA8772-10BC-4940-B52F-41900F1E00FB}"/>
-    <hyperlink ref="J32" tooltip="Supplier" display="'" xr:uid="{8E5886A7-63F3-4EF3-AC78-7F33D34E005D}"/>
-    <hyperlink ref="G33" tooltip="Component" display="'Generic Header" xr:uid="{568DF5C2-94BF-4A6D-B3C1-F116D3E8D075}"/>
-    <hyperlink ref="H33" tooltip="Manufacturer" display="' " xr:uid="{3B285A08-6E7E-4E95-A234-6ECD7ED07EC3}"/>
-    <hyperlink ref="J33" tooltip="Supplier" display="'" xr:uid="{CFCEF806-BD6B-4FE4-A29E-7AC3F44308C5}"/>
-    <hyperlink ref="G34" tooltip="Component" display="'Generic Header" xr:uid="{EA695F96-329E-4262-9064-7D096EF4DFF7}"/>
-    <hyperlink ref="H34" tooltip="Manufacturer" display="' " xr:uid="{7D550A22-56E2-440B-A78D-E24936FCF4EB}"/>
-    <hyperlink ref="J34" tooltip="Supplier" display="'" xr:uid="{FC22A1EA-F367-4C21-B710-AB1BEC67F796}"/>
-    <hyperlink ref="G35" r:id="rId78" tooltip="Component" display="'Phoenix Contact" xr:uid="{1791497C-3702-41B3-84DE-A4C6EF20E277}"/>
-    <hyperlink ref="H35" r:id="rId79" tooltip="Manufacturer" display="'1751248" xr:uid="{1223B3AC-8BA9-424F-BB4A-F1FF838A761A}"/>
-    <hyperlink ref="J35" r:id="rId80" tooltip="Supplier" display="'277-5719-ND" xr:uid="{17785FCA-801F-4A4D-A790-DF48F5E5CFF5}"/>
-    <hyperlink ref="G36" tooltip="Component" display="'Generic Header" xr:uid="{FE713905-12BE-4073-A038-44CCC0336EFE}"/>
-    <hyperlink ref="H36" tooltip="Manufacturer" display="' " xr:uid="{6725B5A5-080F-4241-B6C9-FE6321E833B7}"/>
-    <hyperlink ref="J36" tooltip="Supplier" display="'" xr:uid="{4099EA69-A188-4D8C-B8E9-82ABC1AB419B}"/>
-    <hyperlink ref="G37" tooltip="Component" display="'Generic Header" xr:uid="{A7B27F3C-8408-4635-AC50-FD86F23BF1BC}"/>
-    <hyperlink ref="H37" tooltip="Manufacturer" display="' " xr:uid="{560AE446-DB7B-4D1A-9747-92F747C33EA1}"/>
-    <hyperlink ref="J37" tooltip="Supplier" display="'" xr:uid="{51BA77A9-31D0-4CAF-B5EF-E3871F4E58A7}"/>
-    <hyperlink ref="G38" r:id="rId81" tooltip="Component" display="'Alpha &amp; Omega Semiconductor Inc." xr:uid="{EBA48935-7540-4630-8E8B-8C441E7C8968}"/>
-    <hyperlink ref="H38" r:id="rId82" tooltip="Manufacturer" display="'AO3400A" xr:uid="{7939827A-23F3-490C-9ABB-322AB6189F80}"/>
-    <hyperlink ref="J38" r:id="rId83" tooltip="Supplier" display="'785-1000-1-ND" xr:uid="{FC6B77AE-A269-4A0A-8998-5C95442ADF9D}"/>
-    <hyperlink ref="G40" r:id="rId84" tooltip="Component" display="'Vishay Siliconix" xr:uid="{003DC7A0-479D-4679-819F-E3F2AFDD9F9C}"/>
-    <hyperlink ref="H40" r:id="rId85" tooltip="Manufacturer" display="'SI7111EDN-T1-GE3" xr:uid="{6FB7A78E-C4BC-48C0-85E6-7EB7D2896D20}"/>
-    <hyperlink ref="J40" r:id="rId86" tooltip="Supplier" display="'SI7111EDN-T1-GE3CT-ND" xr:uid="{C0981CED-7808-40E2-8ECC-84A66B94E50E}"/>
-    <hyperlink ref="G41" r:id="rId87" tooltip="Component" display="'Yageo" xr:uid="{F5660119-C5C0-4006-9D66-C3AFAC1D4C0B}"/>
-    <hyperlink ref="H41" r:id="rId88" tooltip="Manufacturer" display="'RC0402JR-071KL" xr:uid="{C1ECEF4A-8288-4AF0-B6AB-B6D394874D5C}"/>
-    <hyperlink ref="J41" r:id="rId89" tooltip="Supplier" display="'311-1.0KJRCT-ND" xr:uid="{7610761B-FC96-4B76-9141-B65F1CCF2B2F}"/>
-    <hyperlink ref="G42" r:id="rId90" tooltip="Component" display="'Yageo" xr:uid="{19E54D2B-5E86-44DE-A06B-01C2F2E1AD8F}"/>
-    <hyperlink ref="H42" r:id="rId91" tooltip="Manufacturer" display="'RC0402JR-074K7L" xr:uid="{2D8E1635-014B-4425-9FFA-2D06167044E5}"/>
-    <hyperlink ref="J42" r:id="rId92" tooltip="Supplier" display="'311-4.7KJRCT-ND" xr:uid="{E4522961-C81A-425C-9C78-A10180864C9B}"/>
-    <hyperlink ref="G43" r:id="rId93" tooltip="Component" display="'Yageo" xr:uid="{E6D2CEF2-0051-439F-8F10-35927D9D97DF}"/>
-    <hyperlink ref="H43" r:id="rId94" tooltip="Manufacturer" display="'RC0402JR-07470RL" xr:uid="{C1EF9DDF-0103-4A30-BCBA-C47D720F6689}"/>
-    <hyperlink ref="J43" r:id="rId95" tooltip="Supplier" display="'311-470JRCT-ND" xr:uid="{345ACB95-B4BD-4933-863E-DD951E9A5EC5}"/>
-    <hyperlink ref="G44" r:id="rId96" tooltip="Component" display="'Yageo" xr:uid="{D5F9E6B1-FAE3-478D-85AF-B579BCAE7CC5}"/>
-    <hyperlink ref="H44" r:id="rId97" tooltip="Manufacturer" display="'RC0402JR-072K2L" xr:uid="{36631855-084F-41DE-B989-3EBC9AC18CA2}"/>
-    <hyperlink ref="J44" r:id="rId98" tooltip="Supplier" display="'311-2.2KJRCT-ND" xr:uid="{CED0A325-41EA-4330-9DEE-876A479EBA91}"/>
-    <hyperlink ref="G45" r:id="rId99" tooltip="Component" display="'Yageo" xr:uid="{5E6DE9CD-00F4-47CA-BD16-43FA9164B50E}"/>
-    <hyperlink ref="H45" r:id="rId100" tooltip="Manufacturer" display="'RC0402JR-07100RL" xr:uid="{66887E4C-CD94-4178-91CE-8B6911374B82}"/>
-    <hyperlink ref="J45" r:id="rId101" tooltip="Supplier" display="'311-100JRCT-ND" xr:uid="{CFC51ACC-B5AA-4944-9327-3F07EE310DF6}"/>
-    <hyperlink ref="G46" r:id="rId102" tooltip="Component" display="'Yageo" xr:uid="{7D7CBBF0-8AE9-494B-8CCD-99E11B7E8AB2}"/>
-    <hyperlink ref="H46" r:id="rId103" tooltip="Manufacturer" display="'RC0402JR-0747KL" xr:uid="{6505830F-43BC-470F-9CA3-AFB06E25CC44}"/>
-    <hyperlink ref="J46" r:id="rId104" tooltip="Supplier" display="'311-47KJRCT-ND" xr:uid="{D94C7565-5EE4-4E91-B9E2-97AAAE32B447}"/>
-    <hyperlink ref="G47" r:id="rId105" tooltip="Component" display="'Yageo" xr:uid="{1FBB21DB-FA7C-44FE-8E35-C538E41ECED4}"/>
-    <hyperlink ref="H47" r:id="rId106" tooltip="Manufacturer" display="'RC0402JR-0710KL" xr:uid="{F14BA016-6206-42FA-969F-32BC3EB8EC4A}"/>
-    <hyperlink ref="J47" r:id="rId107" tooltip="Supplier" display="'311-10KJRCT-ND" xr:uid="{66B0A105-6652-4E71-8709-10C8FDF29EB3}"/>
-    <hyperlink ref="G48" r:id="rId108" tooltip="Component" display="'Yageo" xr:uid="{9D7C1368-DEE6-4456-AFFC-B8C6566F9D55}"/>
-    <hyperlink ref="H48" r:id="rId109" tooltip="Manufacturer" display="'RC0402JR-074K7L" xr:uid="{0FE1CF97-286A-403A-BC37-CE2F0793C63E}"/>
-    <hyperlink ref="J48" r:id="rId110" tooltip="Supplier" display="'311-4.7KJRCT-ND" xr:uid="{94AC8BB7-66E5-4D4D-86F3-3AB6F5EE15C0}"/>
-    <hyperlink ref="G49" r:id="rId111" tooltip="Component" display="'Yageo" xr:uid="{230471B0-C17F-4209-BD3A-C143690E70CF}"/>
-    <hyperlink ref="H49" r:id="rId112" tooltip="Manufacturer" display="'RC0402JR-0722RL" xr:uid="{34351196-4B48-4DFC-BBA6-463C2C0776BE}"/>
-    <hyperlink ref="J49" r:id="rId113" tooltip="Supplier" display="'311-22JRCT-ND" xr:uid="{2EE5233E-49A8-452D-8948-DABB77B86670}"/>
-    <hyperlink ref="G50" r:id="rId114" tooltip="Component" display="'Yageo" xr:uid="{97324B06-3A48-4EF3-B80C-926AE18AED1E}"/>
-    <hyperlink ref="H50" r:id="rId115" tooltip="Manufacturer" display="'RC0402JR-0710RL" xr:uid="{9B2EA76E-B215-4BF3-90BB-35455FB60A0B}"/>
-    <hyperlink ref="J50" r:id="rId116" tooltip="Supplier" display="'311-10JRCT-ND" xr:uid="{5E9E7BD3-A4B3-4CDF-B0E8-72B9504BC00E}"/>
-    <hyperlink ref="G51" r:id="rId117" tooltip="Component" display="'Yageo" xr:uid="{0924CFC4-3E9D-4DF6-BE22-86604FAD8F8C}"/>
-    <hyperlink ref="H51" r:id="rId118" tooltip="Manufacturer" display="'RC0402JR-07100KL" xr:uid="{443723F1-E59E-4593-9828-C1D418F8ADD7}"/>
-    <hyperlink ref="J51" r:id="rId119" tooltip="Supplier" display="'311-100KJRCT-ND" xr:uid="{9BF86B94-3015-42FF-95EA-50F92768A8B8}"/>
-    <hyperlink ref="G52" r:id="rId120" tooltip="Component" display="'Susumu" xr:uid="{9295697E-6BF8-4F06-A1AB-23E7F400ED0B}"/>
-    <hyperlink ref="H52" r:id="rId121" tooltip="Manufacturer" display="'RL1220S-R11-F" xr:uid="{1267801E-99BD-4D91-8C97-4DF54EA5E4A7}"/>
-    <hyperlink ref="J52" r:id="rId122" tooltip="Supplier" display="'RL12S.11FCT-ND" xr:uid="{D958F9DE-73A1-45CD-B699-CC1129D4AE43}"/>
-    <hyperlink ref="G53" r:id="rId123" tooltip="Component" display="'Yageo" xr:uid="{80CD226D-29F4-4B81-8435-1291F60989BB}"/>
-    <hyperlink ref="H53" r:id="rId124" tooltip="Manufacturer" display="'RT0402DRE0749K9L" xr:uid="{2282D056-F2C6-4331-8A3C-5471460A95D0}"/>
-    <hyperlink ref="J53" r:id="rId125" tooltip="Supplier" display="'311-2296-1-ND" xr:uid="{CCE30B2A-6626-45D6-A6A3-70787E720344}"/>
-    <hyperlink ref="G54" r:id="rId126" tooltip="Component" display="'APEM Inc." xr:uid="{D3BAC56E-64B8-4877-8270-ECA2B9E9D29F}"/>
-    <hyperlink ref="H54" r:id="rId127" tooltip="Manufacturer" display="'MJTP1106SATR" xr:uid="{F4FB8C84-E354-4E4E-AE6C-919568299492}"/>
-    <hyperlink ref="J54" r:id="rId128" tooltip="Supplier" display="'679-2396-1-ND" xr:uid="{CC23BDF4-BA3A-4E5C-81F4-E7F007AAAC60}"/>
-    <hyperlink ref="G55" r:id="rId129" tooltip="Component" display="'STMicroelectronics" xr:uid="{392C2D00-A1E3-45B8-ADDA-35CA0AF7900B}"/>
-    <hyperlink ref="H55" r:id="rId130" tooltip="Manufacturer" display="'STM32F446VET6" xr:uid="{406A2193-E09C-42B5-A22D-5C8068336969}"/>
-    <hyperlink ref="J55" r:id="rId131" tooltip="Supplier" display="'497-15375-ND" xr:uid="{606C4ED7-AF76-4C83-8281-8C356448BCBC}"/>
-    <hyperlink ref="G56" r:id="rId132" tooltip="Component" display="'Amphenol Commercial Products" xr:uid="{89C60378-1CA1-46AA-A2A3-3841E0112D61}"/>
-    <hyperlink ref="H56" r:id="rId133" tooltip="Manufacturer" display="'101-00660-68-6" xr:uid="{704725F8-AC6F-4C80-BED3-33FB66E5F261}"/>
-    <hyperlink ref="J56" r:id="rId134" tooltip="Supplier" display="'101-00660-68-6-1-ND" xr:uid="{22C1DC89-E1A8-41C4-BED0-F317BA05DAC6}"/>
-    <hyperlink ref="G57" r:id="rId135" tooltip="Component" display="'STMicroelectronics" xr:uid="{0C4C7093-B2E8-484F-B01A-CB3E4850F163}"/>
-    <hyperlink ref="H57" r:id="rId136" tooltip="Manufacturer" display="'USBLC6-2SC6" xr:uid="{2DBCD93B-EEBE-431E-A4D1-496048CA2DCC}"/>
-    <hyperlink ref="J57" r:id="rId137" tooltip="Supplier" display="'497-5235-1-ND" xr:uid="{DC21FE0F-4CF2-474F-8DED-D384EB43483D}"/>
-    <hyperlink ref="G58" r:id="rId138" tooltip="Component" display="'Diodes Incorporated" xr:uid="{9E9A426C-760F-42D4-A5CC-0A409152EFFA}"/>
-    <hyperlink ref="G59" r:id="rId139" tooltip="Component" display="'Trinamic Motion Control GmbH" xr:uid="{2F871E8B-C0D9-4EC2-8D5A-477D44A3F70F}"/>
-    <hyperlink ref="H59" r:id="rId140" tooltip="Manufacturer" display="'TMC2130-LA-T" xr:uid="{AECCF80C-9C6C-4D5A-AEA6-F78596FEA6AD}"/>
-    <hyperlink ref="G60" r:id="rId141" tooltip="Component" display="'Semtech Corporation" xr:uid="{E6B97018-F1C2-465A-BB04-9DD59669670B}"/>
-    <hyperlink ref="H60" r:id="rId142" tooltip="Manufacturer" display="'TS30042-M000QFNR" xr:uid="{0B4E4A19-20FE-4F4B-85C3-4D8F68742A7A}"/>
-    <hyperlink ref="J60" r:id="rId143" tooltip="Supplier" display="'TS30042-M000QFNRCT-ND" xr:uid="{1CB07C64-7991-45E4-8F98-3BDE4BB0DAF3}"/>
-    <hyperlink ref="G61" r:id="rId144" tooltip="Component" display="'Diodes Incorporated" xr:uid="{F0701B7D-A25D-4AAA-AA41-6F359C98D814}"/>
-    <hyperlink ref="H61" r:id="rId145" tooltip="Manufacturer" display="'AP2112K-3.3TRG1" xr:uid="{2F480F21-BBB4-435E-B4A8-1797FE2C8AED}"/>
-    <hyperlink ref="J61" r:id="rId146" tooltip="Supplier" display="'AP2112K-3.3TRG1DICT-ND" xr:uid="{CD302924-B659-4429-8678-23D69AF66863}"/>
-    <hyperlink ref="G62" r:id="rId147" tooltip="Component" display="'Murata Electronics North America" xr:uid="{BEC7541F-B9C9-43F2-A174-408F65146944}"/>
-    <hyperlink ref="H62" r:id="rId148" tooltip="Manufacturer" display="'CSTCE12M0G55-R0" xr:uid="{53EA12A8-B503-43C1-B9EE-7AABFF8BEC71}"/>
-    <hyperlink ref="J62" r:id="rId149" tooltip="Supplier" display="'490-1197-1-ND" xr:uid="{A8EE8D2F-BE12-43B5-B37E-5FC53AF1D41F}"/>
-    <hyperlink ref="J59" r:id="rId150" tooltip="Supplier" display="'1460-1130-1-ND" xr:uid="{D8199B6E-182A-43C5-A1E6-5E79D0E3DA5E}"/>
+    <hyperlink ref="G2" r:id="rId1" tooltip="Component" display="'Samsung" xr:uid="{A25DE697-E14E-4680-828C-BD868E54978F}"/>
+    <hyperlink ref="H2" r:id="rId2" tooltip="Manufacturer" display="'CL05A475MP5NRNC" xr:uid="{444A3617-4BEC-417B-AA45-E1526F8C4EA3}"/>
+    <hyperlink ref="J2" r:id="rId3" tooltip="Supplier" display="'1276-1482-1-ND" xr:uid="{927E914B-A906-49FC-B751-A33D0A71EBD6}"/>
+    <hyperlink ref="G3" r:id="rId4" tooltip="Component" display="'Yageo" xr:uid="{BA898336-D154-43B7-A5F0-E0FC38D21E30}"/>
+    <hyperlink ref="H3" r:id="rId5" tooltip="Manufacturer" display="'CC0402KRX5R6BB104" xr:uid="{69421532-E56B-43A4-BA86-BB699D928A40}"/>
+    <hyperlink ref="J3" r:id="rId6" tooltip="Supplier" display="'311-1336-1-ND" xr:uid="{EAF44A46-ACDC-4D49-B753-06B7BA2D4793}"/>
+    <hyperlink ref="G4" r:id="rId7" tooltip="Component" display="'Samsung" xr:uid="{4AE1C4D2-E9D9-438A-8F50-3AA27CCF00C6}"/>
+    <hyperlink ref="H4" r:id="rId8" tooltip="Manufacturer" display="'CL05A105MP5NNNC" xr:uid="{365AF58C-7274-4ACF-A599-8CC9B5AFE6CD}"/>
+    <hyperlink ref="J4" r:id="rId9" tooltip="Supplier" display="'1276-1448-1-ND" xr:uid="{01A502CC-8805-46B6-8220-70AE6FE65416}"/>
+    <hyperlink ref="G5" r:id="rId10" tooltip="Component" display="'Samsung" xr:uid="{6DB90D03-5BC9-4108-8F11-5BF50C66C5A2}"/>
+    <hyperlink ref="H5" r:id="rId11" tooltip="Manufacturer" display="'CL21A106KQFNNNG" xr:uid="{23CF6294-01DD-487F-9464-3B9912108B64}"/>
+    <hyperlink ref="J5" r:id="rId12" tooltip="Supplier" display="'1276-6457-1-ND" xr:uid="{EC349586-11F3-4BB5-8627-BD67FFB5B85D}"/>
+    <hyperlink ref="G6" r:id="rId13" tooltip="Component" display="'Murata" xr:uid="{07791A7A-EFAE-4CB3-9BC7-A99C0B77AF11}"/>
+    <hyperlink ref="H6" r:id="rId14" tooltip="Manufacturer" display="'GRM155R71H223KA12D" xr:uid="{29BB8DB1-AF39-4776-8B61-73721813C7DB}"/>
+    <hyperlink ref="J6" r:id="rId15" tooltip="Supplier" display="'490-3884-1-ND" xr:uid="{036586DE-3C03-4A10-A411-21AB0509B672}"/>
+    <hyperlink ref="G7" r:id="rId16" tooltip="Component" display="'Murata" xr:uid="{BC5E1598-BF84-452D-9CB6-C740F3556A81}"/>
+    <hyperlink ref="H7" r:id="rId17" tooltip="Manufacturer" display="'GRM155R71H104KE14D" xr:uid="{5F8E9E8C-F48D-405F-A9D1-41B305110F7C}"/>
+    <hyperlink ref="J7" r:id="rId18" tooltip="Supplier" display="'490-10700-1-ND" xr:uid="{CD386ADC-82F0-4980-9CFE-97EC3E9FBEB8}"/>
+    <hyperlink ref="G8" r:id="rId19" tooltip="Component" display="'Samsung" xr:uid="{46BECFB4-50E8-48AA-9685-D99384F3AD6C}"/>
+    <hyperlink ref="H8" r:id="rId20" tooltip="Manufacturer" display="'CL10A105KB8NNNC" xr:uid="{318855F5-974C-459D-8203-3E924CFB6EF7}"/>
+    <hyperlink ref="J8" r:id="rId21" tooltip="Supplier" display="'1276-1860-1-ND" xr:uid="{73854C5F-687D-43D3-A1EC-E5D6E3875867}"/>
+    <hyperlink ref="G9" r:id="rId22" tooltip="Component" display="'Samsung" xr:uid="{215FF163-28F1-4127-A863-59B3695DD267}"/>
+    <hyperlink ref="H9" r:id="rId23" tooltip="Manufacturer" display="'CL05A474KP5NNNC" xr:uid="{F237CBF4-3676-4F01-A2E2-F4FE6D14279E}"/>
+    <hyperlink ref="J9" r:id="rId24" tooltip="Supplier" display="'1276-1173-1-ND" xr:uid="{07F3A2CA-E0CE-49AA-AC12-0663865DD67F}"/>
+    <hyperlink ref="G10" r:id="rId25" tooltip="Component" display="'Murata" xr:uid="{3D1A727C-BFF5-4DF7-AA52-EE37B36312B9}"/>
+    <hyperlink ref="H10" r:id="rId26" tooltip="Manufacturer" display="'GRM155R72A471KA01D" xr:uid="{8950457F-5F99-41EC-AB54-34340F18ECC0}"/>
+    <hyperlink ref="J10" r:id="rId27" tooltip="Supplier" display="'490-6369-1-ND" xr:uid="{B6AA3BAC-D633-483D-B70D-6891214620BF}"/>
+    <hyperlink ref="G11" r:id="rId28" tooltip="Component" display="'Panasonic" xr:uid="{AEFE35F6-3C67-41D6-9243-357293427585}"/>
+    <hyperlink ref="H11" r:id="rId29" tooltip="Manufacturer" display="'EEE-FT1V101AP" xr:uid="{9A6F4F7F-7981-4344-B383-122556BB5618}"/>
+    <hyperlink ref="J11" r:id="rId30" tooltip="Supplier" display="'PCE5016CT-ND" xr:uid="{F4F6592F-BF99-4775-99CB-D72A7B954C40}"/>
+    <hyperlink ref="G12" r:id="rId31" tooltip="Component" display="'United Chemi-Con" xr:uid="{DCD886BF-5FE3-43B1-84FE-097A1A5780EF}"/>
+    <hyperlink ref="H12" r:id="rId32" tooltip="Manufacturer" display="'EMVA6R3ADA101ME55G" xr:uid="{1CA97393-9499-4C41-92F5-156827AB7B7D}"/>
+    <hyperlink ref="J12" r:id="rId33" tooltip="Supplier" display="'565-2057-1-ND" xr:uid="{4C169092-B9ED-4C1A-BDB4-9F15B5380FCF}"/>
+    <hyperlink ref="G13" r:id="rId34" tooltip="Component" display="'Murata" xr:uid="{0AA0DCC0-62C4-49D1-B450-8E50F6DC7750}"/>
+    <hyperlink ref="H13" r:id="rId35" tooltip="Manufacturer" display="'GRM32ER71H475KA88L" xr:uid="{D618C6F4-01B2-474B-9E76-11EE4A5A35E9}"/>
+    <hyperlink ref="J13" r:id="rId36" tooltip="Supplier" display="'490-1864-1-ND" xr:uid="{AFF09C0C-30A0-4285-96D0-2FE1F3C7A084}"/>
+    <hyperlink ref="G14" r:id="rId37" tooltip="Component" display="'Samsung" xr:uid="{719663AF-C53B-4E48-A6C2-E73B010EA152}"/>
+    <hyperlink ref="H14" r:id="rId38" tooltip="Manufacturer" display="'CL21A226MQQNNNG" xr:uid="{A38AADD2-58E6-4BD3-BCFC-B1C8A6C7E1FC}"/>
+    <hyperlink ref="J14" r:id="rId39" tooltip="Supplier" display="'1276-6460-1-ND" xr:uid="{C2A251DB-4083-415E-8C3C-6292F1911C1B}"/>
+    <hyperlink ref="G15" r:id="rId40" tooltip="Component" display="'MCC" xr:uid="{8E6BCB4E-2BC6-48AE-9309-1AE3DEB6120F}"/>
+    <hyperlink ref="H15" r:id="rId41" tooltip="Manufacturer" display="'BAT54ST-TP" xr:uid="{8DD2FD8C-FE3A-4CE2-96C3-74B37D2FF41D}"/>
+    <hyperlink ref="J15" r:id="rId42" tooltip="Supplier" display="'BAT54ST-TPCT-ND" xr:uid="{60688A02-D057-4017-BDB2-AC38601A2711}"/>
+    <hyperlink ref="G16" r:id="rId43" tooltip="Component" display="'MCC" xr:uid="{A95D0ADE-EE53-4DB1-A814-EC7721A09416}"/>
+    <hyperlink ref="H16" r:id="rId44" tooltip="Manufacturer" display="'1N4148WX-TP" xr:uid="{124F1AB2-62D7-4872-8C29-A730F6CAE3E6}"/>
+    <hyperlink ref="J16" r:id="rId45" tooltip="Supplier" display="'1N4148WXTPMSCT-ND" xr:uid="{6ADA2320-9CA3-4CC2-8832-A6526D1CF149}"/>
+    <hyperlink ref="G17" r:id="rId46" tooltip="Component" display="'ON Semiconductor / Fairchild" xr:uid="{573CAA3F-BA25-47B3-B1D3-00E014AA6B88}"/>
+    <hyperlink ref="H17" r:id="rId47" tooltip="Manufacturer" display="'SS24FL" xr:uid="{8934B6C9-89F4-4C9F-BA95-CBC85D004CB1}"/>
+    <hyperlink ref="J17" r:id="rId48" tooltip="Supplier" display="'SS24FLCT-ND" xr:uid="{90F46BB0-479B-46CD-81C9-70B5E491221A}"/>
+    <hyperlink ref="G18" r:id="rId49" tooltip="Component" display="'Panasonic SSG" xr:uid="{BCB1FA79-0ED5-47BF-9ADF-CA98FD800F88}"/>
+    <hyperlink ref="H18" r:id="rId50" tooltip="Manufacturer" display="'DZ2S100M0L" xr:uid="{CB85F550-B8A2-4457-864B-CCC5088940EA}"/>
+    <hyperlink ref="J18" r:id="rId51" tooltip="Supplier" display="'DZ2S100M0LCT-ND" xr:uid="{E11D9319-93EB-4231-B64C-9AF2EE112AB6}"/>
+    <hyperlink ref="G19" r:id="rId52" tooltip="Component" display="'Bel" xr:uid="{37E73B5A-93EF-4BC3-A7CF-53CA60C5E230}"/>
+    <hyperlink ref="H19" r:id="rId53" tooltip="Manufacturer" display="'0ZCJ0020FF2E" xr:uid="{2DD4CE7B-36E0-478C-90BE-E61F6AAB4453}"/>
+    <hyperlink ref="J19" r:id="rId54" tooltip="Supplier" display="'507-1797-1-ND" xr:uid="{CE8B082B-9599-4DC2-81C2-312190908D3B}"/>
+    <hyperlink ref="G20" r:id="rId55" tooltip="Component" display="'Murata" xr:uid="{F3227163-D6D1-4725-A7F9-EC8E9BBA242F}"/>
+    <hyperlink ref="H20" r:id="rId56" tooltip="Manufacturer" display="'BLM18PG-121SN1D" xr:uid="{9C676EFB-FDBB-497F-A0D5-3632DB4E3020}"/>
+    <hyperlink ref="J20" r:id="rId57" tooltip="Supplier" display="'490-1037-1-ND" xr:uid="{FDBF820C-06CA-4E3D-8C00-ABBCF60B360A}"/>
+    <hyperlink ref="G21" r:id="rId58" tooltip="Component" display="'Laird" xr:uid="{7FD4C8A2-7C58-4879-884B-E99706229CEE}"/>
+    <hyperlink ref="H21" r:id="rId59" tooltip="Manufacturer" display="'HI1206T500R-10" xr:uid="{C3C4A7F9-B8D0-4411-A863-147BAD73879D}"/>
+    <hyperlink ref="J21" r:id="rId60" tooltip="Supplier" display="'240-2412-1-ND" xr:uid="{95CDA4D9-9DB2-4ECF-BE30-4D516F8CEF87}"/>
+    <hyperlink ref="G22" r:id="rId61" tooltip="Component" display="'Molex" xr:uid="{F0BB11DE-A579-43E6-8963-60A25346004D}"/>
+    <hyperlink ref="H22" r:id="rId62" tooltip="Manufacturer" display="'105017-0001" xr:uid="{F4D62204-7D30-4538-96A1-EB097876013D}"/>
+    <hyperlink ref="J22" r:id="rId63" tooltip="Supplier" display="'WM1399CT-ND" xr:uid="{B913E92C-D628-46DD-A608-FA561834A49A}"/>
+    <hyperlink ref="G23" r:id="rId64" tooltip="Component" display="'Taiyo Yuden" xr:uid="{18546B3D-8FF8-4921-AB2D-6799E0F26C31}"/>
+    <hyperlink ref="H23" r:id="rId65" tooltip="Manufacturer" display="'NRS5030T4R7MMGJ" xr:uid="{815A9AFC-E734-4A5A-8D0A-296CCBE361DD}"/>
+    <hyperlink ref="J23" r:id="rId66" tooltip="Supplier" display="'587-3461-1-ND" xr:uid="{3C4DFDF1-6D00-4BFA-AC08-428B382FB803}"/>
+    <hyperlink ref="G24" r:id="rId67" tooltip="Component" display="'Wurth Electronics" xr:uid="{54B2F94B-2DFD-421D-A565-989C4656AA0C}"/>
+    <hyperlink ref="H24" r:id="rId68" tooltip="Manufacturer" display="'150040RS73240" xr:uid="{3F650750-90D6-42BC-83EB-A4C670B17ADF}"/>
+    <hyperlink ref="J24" r:id="rId69" tooltip="Supplier" display="'732-11991-1-ND" xr:uid="{D77EF401-118D-4E88-9038-D6A42A62576F}"/>
+    <hyperlink ref="G25" r:id="rId70" tooltip="Component" display="'Wurth Electronics" xr:uid="{051A833D-C8CE-47F1-8CF5-478E65B05F69}"/>
+    <hyperlink ref="H25" r:id="rId71" tooltip="Manufacturer" display="'150040VS73240" xr:uid="{B4A60AFB-8870-4494-AC74-973FE8A1B1D8}"/>
+    <hyperlink ref="J25" r:id="rId72" tooltip="Supplier" display="'732-11992-1-ND" xr:uid="{EA30C8AF-5A8E-4079-B637-FFC57003C5AB}"/>
+    <hyperlink ref="G26" r:id="rId73" tooltip="Component" display="'Wurth Electronics" xr:uid="{E533E7CA-4F75-4E0D-A144-6C44396E8679}"/>
+    <hyperlink ref="H26" r:id="rId74" tooltip="Manufacturer" display="'150040YS73240" xr:uid="{FE2ED91B-5F7D-47DE-BCE9-31F7F3F1DDBC}"/>
+    <hyperlink ref="J26" r:id="rId75" tooltip="Supplier" display="'732-11993-1-ND" xr:uid="{04DE800D-AE09-42CE-B9E4-BDDCF6DA79BA}"/>
+    <hyperlink ref="G27" r:id="rId76" tooltip="Component" display="'Phoenix Contact" xr:uid="{5E808064-75A3-4A04-A274-FD8421A09EFA}"/>
+    <hyperlink ref="H27" r:id="rId77" tooltip="Manufacturer" display="'1935776" xr:uid="{ED8F7A51-14A3-4FB0-B919-51BB0A2D8290}"/>
+    <hyperlink ref="J27" r:id="rId78" tooltip="Supplier" display="'277-6405-ND" xr:uid="{B649FD95-DFB5-4687-8AC1-E7223E797546}"/>
+    <hyperlink ref="G28" tooltip="Component" display="'Generic Header" xr:uid="{A5D569E5-B85C-4ECB-8ACB-01F0F4B4967E}"/>
+    <hyperlink ref="H28" tooltip="Manufacturer" display="'" xr:uid="{E5ED3F43-5DFE-4139-8533-08C9AAC72DE0}"/>
+    <hyperlink ref="J28" tooltip="Supplier" display="'" xr:uid="{99CB59B1-1AA6-473A-96D1-89D7804FBC31}"/>
+    <hyperlink ref="G29" tooltip="Component" display="'Generic Header" xr:uid="{E9462DA5-4D25-4EE8-A52D-0C2384D47316}"/>
+    <hyperlink ref="H29" tooltip="Manufacturer" display="'" xr:uid="{50C39E95-B1DF-47C4-A6A4-945E7B758EFB}"/>
+    <hyperlink ref="J29" tooltip="Supplier" display="'" xr:uid="{9402E065-F560-4724-8F5A-7C804DF6A7CC}"/>
+    <hyperlink ref="G30" tooltip="Component" display="'Generic Header" xr:uid="{264D0C8D-AFD9-4F4F-8F7A-AAD1A76DBFB0}"/>
+    <hyperlink ref="H30" tooltip="Manufacturer" display="'" xr:uid="{94C06374-3DF1-40C8-A67D-94C96B840F7B}"/>
+    <hyperlink ref="J30" tooltip="Supplier" display="'" xr:uid="{4C640807-6A45-4AD9-86FF-4CD42823BBEF}"/>
+    <hyperlink ref="G31" tooltip="Component" display="'Generic Header" xr:uid="{1236130A-B8A4-4F9F-940A-75849D1877A6}"/>
+    <hyperlink ref="H31" tooltip="Manufacturer" display="'" xr:uid="{938DE044-F132-46B1-879B-D47CE9080E36}"/>
+    <hyperlink ref="J31" tooltip="Supplier" display="'" xr:uid="{34B93C45-4754-4DCB-8437-93B50A723501}"/>
+    <hyperlink ref="G32" tooltip="Component" display="'Generic Header" xr:uid="{6C52E66D-CAFE-40F5-94AF-5C9E397FD038}"/>
+    <hyperlink ref="H32" tooltip="Manufacturer" display="'" xr:uid="{F8F4ED55-7084-4A7F-9256-E20B3C3A739F}"/>
+    <hyperlink ref="J32" tooltip="Supplier" display="'" xr:uid="{BFBCB603-ED86-4A86-A7F3-9F3D37899C6E}"/>
+    <hyperlink ref="G33" tooltip="Component" display="'Generic Header" xr:uid="{240D6D4B-54CD-4472-8506-F713E1362E7B}"/>
+    <hyperlink ref="H33" tooltip="Manufacturer" display="'" xr:uid="{D8D4BAB2-2384-4B3B-B45A-B7197C49D88B}"/>
+    <hyperlink ref="J33" tooltip="Supplier" display="'" xr:uid="{02A8A5E3-9FB5-47A4-AE4C-54452EB68D4A}"/>
+    <hyperlink ref="G34" tooltip="Component" display="'Generic Header" xr:uid="{7DAC5217-3528-4DB4-A83F-32CF54DB8D9E}"/>
+    <hyperlink ref="H34" tooltip="Manufacturer" display="'" xr:uid="{79A4A811-3C51-4F3D-95FE-B7D2B62C9F8D}"/>
+    <hyperlink ref="J34" tooltip="Supplier" display="'" xr:uid="{ED19ABB4-26FE-417C-A8CD-9FC59CF356B5}"/>
+    <hyperlink ref="G35" r:id="rId79" tooltip="Component" display="'Phoenix Contact" xr:uid="{8C1D57CC-B7FC-478E-8650-78396C118B0E}"/>
+    <hyperlink ref="H35" r:id="rId80" tooltip="Manufacturer" display="'1751248" xr:uid="{BF8F066C-F044-4B52-A86E-7E4E5A0CB68A}"/>
+    <hyperlink ref="J35" r:id="rId81" tooltip="Supplier" display="'277-5719-ND" xr:uid="{641B47A4-0C02-4A8A-BF8B-50C16DF9B831}"/>
+    <hyperlink ref="G36" tooltip="Component" display="'Generic Header" xr:uid="{9F2BD142-F534-4FE6-94AD-3DAF448FE26A}"/>
+    <hyperlink ref="H36" tooltip="Manufacturer" display="'" xr:uid="{7FADB255-C374-4D5C-B778-64C7D36A3CB1}"/>
+    <hyperlink ref="J36" tooltip="Supplier" display="'" xr:uid="{E8444D05-A08E-4C34-BEFB-33D43BAF2E05}"/>
+    <hyperlink ref="G37" tooltip="Component" display="'Generic Header" xr:uid="{4CB6C050-AF9B-4C73-B956-7FE1EC838E1A}"/>
+    <hyperlink ref="H37" tooltip="Manufacturer" display="'" xr:uid="{9FC4CEE0-89BD-41B2-BDDA-AB8CDBC74833}"/>
+    <hyperlink ref="J37" tooltip="Supplier" display="'" xr:uid="{2442DD7C-63F0-4EDE-807E-C5E99E15362F}"/>
+    <hyperlink ref="G38" r:id="rId82" tooltip="Component" display="'Alpha &amp; Omega Semiconductor" xr:uid="{55C38AEB-A430-424E-976E-82BCFC811C80}"/>
+    <hyperlink ref="H38" r:id="rId83" tooltip="Manufacturer" display="'AO3400A" xr:uid="{8A7CF853-F6FC-4ACD-972F-8B13988B6C1D}"/>
+    <hyperlink ref="J38" r:id="rId84" tooltip="Supplier" display="'785-1000-1-ND" xr:uid="{DA72185C-3238-4AAF-8391-B2AB6EC123D2}"/>
+    <hyperlink ref="G39" r:id="rId85" tooltip="Component" display="'NXP Semiconductors" xr:uid="{2FE53510-93E9-427A-806A-CEB0D15E9940}"/>
+    <hyperlink ref="H39" r:id="rId86" tooltip="Manufacturer" display="'PSMN1R8-40YLC,115" xr:uid="{34FC3340-B24D-467A-A5BD-FB6AE2CD20B2}"/>
+    <hyperlink ref="J39" r:id="rId87" tooltip="Supplier" display="'568-10156-1-ND" xr:uid="{BD0425BA-D2E1-446D-A20B-1AFCDC397765}"/>
+    <hyperlink ref="G40" r:id="rId88" tooltip="Component" display="'Vishay" xr:uid="{AAC46602-B920-491E-B80A-B006B36B1612}"/>
+    <hyperlink ref="H40" r:id="rId89" tooltip="Manufacturer" display="'SI7111EDN-T1-GE3" xr:uid="{4C2392D4-B75E-48E1-9A03-258A598BDAB5}"/>
+    <hyperlink ref="J40" r:id="rId90" tooltip="Supplier" display="'SI7111EDN-T1-GE3CT-ND" xr:uid="{CD5C08D2-57C4-4C33-8C0C-11FA0F4DDAD0}"/>
+    <hyperlink ref="G41" r:id="rId91" tooltip="Component" display="'Yageo" xr:uid="{771D35E1-F449-40C2-8644-F8E160A83E66}"/>
+    <hyperlink ref="H41" r:id="rId92" tooltip="Manufacturer" display="'RC0402JR-071KL" xr:uid="{99037D97-05C6-4C5E-B0F0-955B6C08CEDB}"/>
+    <hyperlink ref="J41" r:id="rId93" tooltip="Supplier" display="'311-1.0KJRCT-ND" xr:uid="{2D8CD8A9-F17D-48A7-BC02-4F8625CFFBBA}"/>
+    <hyperlink ref="G42" r:id="rId94" tooltip="Component" display="'Yageo" xr:uid="{E987BDC5-0A1E-4F49-BA55-8C56E74C483C}"/>
+    <hyperlink ref="H42" r:id="rId95" tooltip="Manufacturer" display="'RC0402JR-074K7L" xr:uid="{6A78D87D-53CB-4277-97C7-5F5EAA8F2DE5}"/>
+    <hyperlink ref="J42" r:id="rId96" tooltip="Supplier" display="'311-4.7KJRCT-ND" xr:uid="{350FC172-B396-4F96-BAFA-9D91D12A93BC}"/>
+    <hyperlink ref="G43" r:id="rId97" tooltip="Component" display="'Yageo" xr:uid="{41109808-8F0F-45C6-8313-1DAC1E083E4B}"/>
+    <hyperlink ref="H43" r:id="rId98" tooltip="Manufacturer" display="'RC0402JR-07470RL" xr:uid="{6CB2905E-975B-4A32-9AD9-B0767AEEBFCB}"/>
+    <hyperlink ref="J43" r:id="rId99" tooltip="Supplier" display="'311-470JRCT-ND" xr:uid="{404C6C8F-C291-4447-B68B-2808B7AF3FC3}"/>
+    <hyperlink ref="G44" r:id="rId100" tooltip="Component" display="'Yageo" xr:uid="{9643B594-394F-423C-A015-2B899A5190B7}"/>
+    <hyperlink ref="H44" r:id="rId101" tooltip="Manufacturer" display="'RC0402JR-072K2L" xr:uid="{04EBA817-15EF-4ADA-8AEA-E2856A76E519}"/>
+    <hyperlink ref="J44" r:id="rId102" tooltip="Supplier" display="'311-2.2KJRCT-ND" xr:uid="{3777DFAA-34A3-4246-BB9F-23E12CC8A6F1}"/>
+    <hyperlink ref="G45" r:id="rId103" tooltip="Component" display="'Yageo" xr:uid="{0983AF83-DA83-4760-997D-93E02F60CC45}"/>
+    <hyperlink ref="H45" r:id="rId104" tooltip="Manufacturer" display="'RC0402JR-07100RL" xr:uid="{31865618-AE5A-4A95-AF64-2E347EB9EBAD}"/>
+    <hyperlink ref="J45" r:id="rId105" tooltip="Supplier" display="'311-100JRCT-ND" xr:uid="{EDFBE700-561E-4336-90E3-6F54A582A7F9}"/>
+    <hyperlink ref="G46" r:id="rId106" tooltip="Component" display="'Yageo" xr:uid="{3AE55060-8CB8-42D0-8172-C184B3D67246}"/>
+    <hyperlink ref="H46" r:id="rId107" tooltip="Manufacturer" display="'RC0402JR-0747KL" xr:uid="{1B1C902A-B7AA-4184-9A04-3A68EECFBC16}"/>
+    <hyperlink ref="J46" r:id="rId108" tooltip="Supplier" display="'311-47KJRCT-ND" xr:uid="{35AFF646-F0D0-4C0C-AD88-C9C458A0E5C1}"/>
+    <hyperlink ref="G47" r:id="rId109" tooltip="Component" display="'Yageo" xr:uid="{F876F260-2937-4D30-B945-2E855D3A1B98}"/>
+    <hyperlink ref="H47" r:id="rId110" tooltip="Manufacturer" display="'RC0402JR-0710KL" xr:uid="{4758855F-B142-4057-9F90-12A67676594E}"/>
+    <hyperlink ref="J47" r:id="rId111" tooltip="Supplier" display="'311-10KJRCT-ND" xr:uid="{383C7F53-F08E-40EF-8B47-241BB5721BD6}"/>
+    <hyperlink ref="G48" r:id="rId112" tooltip="Component" display="'Yageo" xr:uid="{CA1AE4BE-F16E-4B85-AFFB-105787B0AC95}"/>
+    <hyperlink ref="H48" r:id="rId113" tooltip="Manufacturer" display="'RC0402JR-074K7L" xr:uid="{5AC463FF-C91E-4F93-920E-2D30C13F6A30}"/>
+    <hyperlink ref="J48" r:id="rId114" tooltip="Supplier" display="'311-4.7KJRCT-ND" xr:uid="{88DAD59E-DE66-4E32-96B7-B7F3220F5330}"/>
+    <hyperlink ref="G49" r:id="rId115" tooltip="Component" display="'Yageo" xr:uid="{0558C3F6-2CED-4819-8FF6-67DE75EE99BA}"/>
+    <hyperlink ref="H49" r:id="rId116" tooltip="Manufacturer" display="'RC0402JR-0722RL" xr:uid="{32D1B572-654E-4F39-A850-C903540B138E}"/>
+    <hyperlink ref="J49" r:id="rId117" tooltip="Supplier" display="'311-22JRCT-ND" xr:uid="{9C8818B0-9120-483D-BB55-8CBC56C6B1D0}"/>
+    <hyperlink ref="G50" r:id="rId118" tooltip="Component" display="'Yageo" xr:uid="{F592C2C6-4013-421B-90B0-1E0980374108}"/>
+    <hyperlink ref="H50" r:id="rId119" tooltip="Manufacturer" display="'RC0402JR-0710RL" xr:uid="{3AF974DC-79AD-4237-9092-8E712B5AF032}"/>
+    <hyperlink ref="J50" r:id="rId120" tooltip="Supplier" display="'311-10JRCT-ND" xr:uid="{3DA762D4-5F25-4D38-A55E-73D5912C6EB4}"/>
+    <hyperlink ref="G51" r:id="rId121" tooltip="Component" display="'Yageo" xr:uid="{01A93CDE-CD9E-495C-B62B-7DE156618D4A}"/>
+    <hyperlink ref="H51" r:id="rId122" tooltip="Manufacturer" display="'RC0402JR-07100KL" xr:uid="{B25EAC51-4DE3-4F07-BAC9-8898E2CA3B98}"/>
+    <hyperlink ref="J51" r:id="rId123" tooltip="Supplier" display="'311-100KJRCT-ND" xr:uid="{9B23C72B-D7F7-4E75-94E4-7F3E3BF7F2D3}"/>
+    <hyperlink ref="G52" r:id="rId124" tooltip="Component" display="'Susumu" xr:uid="{D17CB849-D204-4C90-AC43-44FB794DCE74}"/>
+    <hyperlink ref="H52" r:id="rId125" tooltip="Manufacturer" display="'RL1220S-R11-F" xr:uid="{647489B0-1F5E-49F3-BA4B-135588838A2B}"/>
+    <hyperlink ref="J52" r:id="rId126" tooltip="Supplier" display="'RL12S.11FCT-ND" xr:uid="{EDA0789B-7C0E-4718-8CD3-A94AC2B0DF48}"/>
+    <hyperlink ref="G53" r:id="rId127" tooltip="Component" display="'Yageo" xr:uid="{DD28E2C7-A39D-463F-A42A-5AADFC41A61F}"/>
+    <hyperlink ref="H53" r:id="rId128" tooltip="Manufacturer" display="'RT0402DRE0749K9L" xr:uid="{0F8C49AE-A8DA-42C8-84DB-F1BBF44AA540}"/>
+    <hyperlink ref="J53" r:id="rId129" tooltip="Supplier" display="'311-2296-1-ND" xr:uid="{FBD308F4-8091-4C9D-BF39-36793028D1D8}"/>
+    <hyperlink ref="G54" r:id="rId130" tooltip="Component" display="'APEM" xr:uid="{7538185E-2C1C-4715-A546-CEC7AA3B9631}"/>
+    <hyperlink ref="H54" r:id="rId131" tooltip="Manufacturer" display="'MJTP1106SATR" xr:uid="{3A962259-5D63-43EC-86AD-2A0B3559CD13}"/>
+    <hyperlink ref="J54" r:id="rId132" tooltip="Supplier" display="'679-2396-1-ND" xr:uid="{A9F57EB7-FC5D-49DB-B4A7-82F5879799B0}"/>
+    <hyperlink ref="G55" r:id="rId133" tooltip="Component" display="'STMicroelectronics" xr:uid="{9881C77E-4613-4B2B-8B14-980D68CAAC13}"/>
+    <hyperlink ref="H55" r:id="rId134" tooltip="Manufacturer" display="'STM32F446VET6" xr:uid="{9B94034B-2E69-43AC-8873-43A989D7E32B}"/>
+    <hyperlink ref="J55" r:id="rId135" tooltip="Supplier" display="'497-15375-ND" xr:uid="{2A721FEB-457E-4000-8D1C-D72B1D515755}"/>
+    <hyperlink ref="G56" r:id="rId136" tooltip="Component" display="'Amphenol" xr:uid="{D6C50F39-0323-4A81-B0C6-04B84C92BD17}"/>
+    <hyperlink ref="H56" r:id="rId137" tooltip="Manufacturer" display="'10100660686" xr:uid="{4E31B8F8-3F1A-405B-94F0-779C56C91F2A}"/>
+    <hyperlink ref="J56" r:id="rId138" tooltip="Supplier" display="'101-00660-68-6-1-ND" xr:uid="{0A4C871C-F015-4FBA-93AA-9C7B494A190C}"/>
+    <hyperlink ref="G57" r:id="rId139" tooltip="Component" display="'STMicroelectronics" xr:uid="{DAD2E0F2-354A-4EA0-B939-4DCCDC6C9F17}"/>
+    <hyperlink ref="H57" r:id="rId140" tooltip="Manufacturer" display="'USBLC6-2SC6" xr:uid="{DC6D0BDD-90F9-4BD3-9EDD-9A9440296D6E}"/>
+    <hyperlink ref="J57" r:id="rId141" tooltip="Supplier" display="'497-5235-1-ND" xr:uid="{1EE7B94E-C4AB-4791-AD8F-F8A740A75866}"/>
+    <hyperlink ref="G58" r:id="rId142" tooltip="Component" display="'Diodes" xr:uid="{F6EC7C7D-C2E2-451A-88B7-00C0E65C5797}"/>
+    <hyperlink ref="H58" r:id="rId143" tooltip="Manufacturer" display="'ZXGD3009DYTA" xr:uid="{9F5CAAE1-3E91-4126-93E0-F9C3F5A3FAAF}"/>
+    <hyperlink ref="J58" r:id="rId144" tooltip="Supplier" display="'ZXGD3009DYTADICT-ND" xr:uid="{BAC111FD-27B3-431D-A09A-61351B04D480}"/>
+    <hyperlink ref="G59" r:id="rId145" tooltip="Component" display="'Trinamic" xr:uid="{4449D11B-9A2A-4422-AC14-9215B7EE1964}"/>
+    <hyperlink ref="H59" r:id="rId146" tooltip="Manufacturer" display="'TMC2130-LA-T" xr:uid="{93124D48-F191-4D95-8C98-66AB15487989}"/>
+    <hyperlink ref="J59" r:id="rId147" tooltip="Supplier" display="'1460-1130-1-ND" xr:uid="{F6069A33-6FDE-4570-B42E-736A9D045279}"/>
+    <hyperlink ref="G60" r:id="rId148" tooltip="Component" display="'Semtech" xr:uid="{38C33324-FA04-4C54-BEDC-9D46DFE5F794}"/>
+    <hyperlink ref="H60" r:id="rId149" tooltip="Manufacturer" display="'TS30042-M000QFNR" xr:uid="{5C983E2E-5690-4841-A62A-9AB73FBE9D95}"/>
+    <hyperlink ref="J60" r:id="rId150" tooltip="Supplier" display="'TS30042-M000QFNRCT-ND" xr:uid="{1D6462DE-4187-4B0F-9986-847BAA731E4C}"/>
+    <hyperlink ref="G61" r:id="rId151" tooltip="Component" display="'Diodes" xr:uid="{DCECB838-FA08-44C2-A4F8-3060ECBEE5CA}"/>
+    <hyperlink ref="H61" r:id="rId152" tooltip="Manufacturer" display="'AP2112K-3.3TRG1" xr:uid="{BFEC7F6E-B664-40F1-9DA6-A3B297780AD2}"/>
+    <hyperlink ref="J61" r:id="rId153" tooltip="Supplier" display="'AP2112K-3.3TRG1DICT-ND" xr:uid="{C01208FE-DF84-43D2-BD18-D3B2441048F9}"/>
+    <hyperlink ref="G62" r:id="rId154" tooltip="Component" display="'Murata" xr:uid="{ED967B78-B098-4B20-A958-155D8C50EDC2}"/>
+    <hyperlink ref="H62" r:id="rId155" tooltip="Manufacturer" display="'CSTCE12M0G55-R0" xr:uid="{3187C98D-D717-493D-B712-1A1E065C08B5}"/>
+    <hyperlink ref="J62" r:id="rId156" tooltip="Supplier" display="'490-1197-1-ND" xr:uid="{CE865A98-FF5B-4668-A741-786D8E17DDB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId151"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId157"/>
 </worksheet>
 </file>